--- a/excel/finished/能介/能源环保部三空压站设备日点检表.xlsx
+++ b/excel/finished/能介/能源环保部三空压站设备日点检表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
-    <sheet name="空压站点检表" sheetId="3" r:id="rId2"/>
+    <sheet name="_Template" sheetId="3" r:id="rId2"/>
     <sheet name="_metadata" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -460,9 +460,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -511,20 +511,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -536,8 +525,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -550,7 +546,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -558,6 +574,47 @@
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -571,76 +628,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -660,7 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,25 +678,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +744,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,37 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,15 +1119,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,6 +1138,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1164,11 +1164,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,15 +1204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1214,166 +1221,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3252,7 +3252,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="V3:V4"/>
   </mergeCells>
-  <pageMargins left="0.314583333333333" right="0.196527777777778" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.313888888888889" right="0.196527777777778" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
